--- a/resources/samples/SampleMappings_21.xlsx
+++ b/resources/samples/SampleMappings_21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F763A5B-F90A-6348-8D24-5417B225F9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C066CFF-CB8F-3941-940D-9D86D1C26DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7800" yWindow="-24100" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples Inbound" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
   <si>
     <t>Sample Mapping #</t>
   </si>
@@ -699,14 +699,6 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "time": "2022-08-05T00:14:49.389+02:00",
-    "type": "c8y_Temperature",
-    "c8y_Temperature": "dummy",
-    "c8y_Fragment_to_remove": "remove_me"
-}</t>
-  </si>
-  <si>
     <t>A measasurement should be created for the device berlin_01.
 The fragment "c8y_Fragment_to_remove" is not included in the created measurement, as the repair strategy is "REMOVE_IF_NULL".
 In addition the reapair strategy "CREATE_IF_MISSING" is used. This is required to map the node "unexpected" to the target fragment "c8y_Unexpected". This is created, due to the used reapir strategy.</t>
@@ -812,15 +804,6 @@
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>{
-    "alarmType": "MAJOR",
-    "message": "This is an alamr for the extension!",
-    "type": "c8y_ExtensionAlarm",
-    "externalId": "berlin_01",
-    "time": "2024-06-18T13:20:45.000Z"
-}</t>
   </si>
   <si>
     <t>the extraction and the substitution in the tagetPayload are implemented in java, see. ProcessorExtensionCustomAlarm.java.
@@ -974,123 +957,6 @@
 The Cumulocity device id is added as key (message context). </t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>JSON
-OUTBOUND
-check "Define substitutions as JavaScript"</t>
-  </si>
-  <si>
-    <t>publishTopic:       measurement/measurements
-mappingTopicSample: measurement/measurements
-filterMapping: c8y_TemperatureMeasurement.T.value &gt; 10
-filterInventory: type = "wika_PGW23"
-sub are defined in the JavaScript code:
-//Define temperature fragment mapping temperature -&gt; c8y_Temperature.T.value/unit
-const temperatureSV = new SubstitutionValue(temperatureFragment, TYPE.OBJECT, RepairStrategy.CREATE_IF_MISSING, false);
-addSubstitution(result, 'c8y_TemperatureProcessed', temperatureSV);
-NOTE: the JavaScript code is included in the samples file mappings-OUTBOUND.json</t>
-  </si>
-  <si>
-    <t>{
-  "c8y_TemperatureMeasurement": {
-    "T": {
-      "value": 110,
-      "unit": "C"
-    }
-  },
-  "time": "2022-08-05T00:14:49.389+02:00",
-  "type": "c8y_TemperatureMeasurement",
-}</t>
-  </si>
-  <si>
-    <t>{
-  "Temperature": {
-    "value": 110,
-    "unit": "C"
-  },
-  "source": {
-    "id": "878275"
-  },
-  "time": "2022-08-05T00:14:49.389+02:00",
-  "type": "c8y_TemperatureProcessed",
-  "_CONTEXT_DATA_": {
-    "key": "key-sample",
-    "method": "POST",
-    "publishTopic": "measurement/measurements"
-  },
-  "_TOPIC_LEVEL_": [
-    "measurement",
-    "measurements"
-  ]
-}</t>
-  </si>
-  <si>
-    <t>This outbound mapping listens to c8y_TemperatureMeasurement and creates a new measurement of type c8y_TemperatureProcessed</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">publishTopic:       inventory/managedObjects/#
-mappingTopicSample: inventory/managedObjects/+
-filterMapping: type = "c8y_Uplink"
-filterInventory: type = "wika_PGW23"
-check: Use message context
-sub are defined in the JavaScript code:
-//Define a new Measurement Value for Temperatures by assigning from source
-const w2a_configuration = {
-    value: 'bsd_' + measurements[0]
-};
-// Substitution: String key, Object value, MappingSubstitution.SubstituteValue.TYPE type, RepairStrategy repairStrategy
-const w2a_configuration_fragment = new SubstitutionValue(w2a_configuration, TYPE.OBJECT, RepairStrategy.CREATE_IF_MISSING, false);
-addSubstitution(result, 'w2a_configuration', w2a_configuration_fragment);
-NOTE: the JavaScript code is included in the samples file mappings-OUTBOUND.json
- </t>
-  </si>
-  <si>
-    <t>{
-  "id": "74292",
-  "time": "2025-04-01T23:06:58.794+02:00",
-  "text": "`New uplink event: 2025-04-01T23:06:58.794+02:00",
-  "source": {
-    "name": "PDW23 - 102030",
-    "id": "9375325"
-  },
-  "type": "c8y_Uplink",
-  "bytes": [
-    1,
-    0,
-    35,
-    90,
-    185,
-    35,
-    110
-  ],
-  "_IDENTITY_": {
-    "c8ySourceId": "909090"
-  }
-}</t>
-  </si>
-  <si>
-    <t>{
-  "_TOPIC_LEVEL_": [
-    "inventory",
-    "managedObjects",
-    "+"
-  ],
-  "_CONTEXT_DATA_": {
-    "key": "key-sample",
-    "method": "POST",
-    "publishTopic": "inventory/managedObjects/#"
-  }
-}</t>
-  </si>
-  <si>
-    <t>This outbound mapping listens to events of type "c8y_Uplink" and extracts data for the fragment w2a_configuration. The inventory of this device is updated. Additionally this update is a merge/ patch of the existing fragment w2a_configuration.</t>
-  </si>
-  <si>
     <t>mappingTopic:        devices/+
 mappingTopicSample:  devices/device_best_01
 check: Create non existing device
@@ -1228,20 +1094,6 @@
 Use test client:  cumulocity-dynamic-mapper/dynamic-mapper-service/src/test/java/dynamic/mapping/ProtobufMqttClient.java</t>
   </si>
   <si>
-    <t xml:space="preserve">mappingTopic:        protobuf/event
-mappingTopicSample:  protobuf/event
-check: Use external id
-sub:
-Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapper/processor/extension/external/ProcessorExtensionCustomEvent.java
-In selection: Extensions for PROCESSOR_EXTENSION
-choose:
-  dynamic-mapper-extension
-In selection: Events for dynamic-mapper-extension
-choose:
-  CustomEvent
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Send message in protobuf format:
 syntax = "proto3";
 package processor.protobuf;
@@ -1257,17 +1109,6 @@
 }
 Use test client:  cumulocity-dynamic-mapper/dynamic-mapper-extension/src/test/java/dynamic/mapping/ProtobufMqttClient.java
  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mappingTopic:       extension/source_target
-mappingTopicSample: extension/source_target
-check: Use external id
-Extensions for Processor Extension Source Target:
-select 
-Events for:
-select
-Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomAlarm.java
-</t>
   </si>
   <si>
     <t xml:space="preserve">mappingTopic:        hexEvent/+
@@ -1292,6 +1133,74 @@
 Events for dynamic-mapper-extension: CustomMeasurement
 Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapping/processor/extension/external/ProcessorExtensionCustomMeasurement.java
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappingTopic:       extension/customAlarm
+mappingTopicSample: extension/customAlarm
+check: Use external id
+Extensions for Processor Extension Source Target:
+select 
+Events for:
+select
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapping/processor/extension/external/inbound/ProcessorExtensionCustomAlarm.java
+</t>
+  </si>
+  <si>
+    <t>{
+    "alarmType": "CRITICAL",
+    "message": "Temperature exceeds threshold",
+    "type": "c8y_TemperatureAlarm",
+    "externalId": "berlin_01",
+    "time": "2024-06-18T13:20:45.000Z"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mappingTopic:        protobuf/event
+mappingTopicSample:  protobuf/event
+check: Use external id
+sub:
+Defined in cumulocity-dynamic-mapper/dynamic-mapper-extension/src/main/java/dynamic/mapper/processor/extension/external/inbound/ProcessorExtensionCustomEvent.java
+In selection: Extensions for PROCESSOR_EXTENSION
+choose:
+  dynamic-mapper-extension
+In selection: Events for dynamic-mapper-extension
+choose:
+  CustomEvent
+</t>
+  </si>
+  <si>
+    <t>{
+  "severity": "CRITICAL",
+  "text": "Temperature exceeds threshold",
+  "time": "2024-06-18T13:20:45.000Z",
+  "source": {
+    "id": "6926746"
+  },
+  "type": "c8y_TemperatureAlarm",
+  "status": "ACTIVE"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "time": "2023-07-12T14:21:53.389Z",
+  "source": {
+    "id": "6926746"
+  },
+  "id": "697f1dc18669446d3746a321",
+  "type": "c8y_TemperatureMeasurement",
+  "c8y_Unexpected": {
+    "U": {
+      "unit": "unknown_unit",
+      "value": 17.5
+    }
+  },
+  "c8y_Temperature": {
+    "T": {
+      "unit": "Celsius",
+      "value": 120.5
+    }
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1597,8 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1777,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>10</v>
@@ -2007,7 +1916,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>26</v>
@@ -2053,19 +1962,19 @@
         <v>77</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>78</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="332" x14ac:dyDescent="0.2">
@@ -2073,22 +1982,22 @@
         <v>79</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
@@ -2183,15 +2092,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="252" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="280" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>10</v>
@@ -2200,148 +2109,148 @@
         <v>101</v>
       </c>
       <c r="F21" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11070,11 +10979,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z975"/>
+  <dimension ref="A1:Z973"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11139,19 +11048,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="210" x14ac:dyDescent="0.2">
@@ -11162,112 +11071,84 @@
         <v>8</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="224" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="280" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="384" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
@@ -19963,27 +19844,9 @@
       <c r="F973" s="17"/>
       <c r="G973" s="19"/>
     </row>
-    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="16"/>
-      <c r="B974" s="16"/>
-      <c r="C974" s="17"/>
-      <c r="D974" s="18"/>
-      <c r="E974" s="17"/>
-      <c r="F974" s="17"/>
-      <c r="G974" s="19"/>
-    </row>
-    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="16"/>
-      <c r="B975" s="16"/>
-      <c r="C975" s="17"/>
-      <c r="D975" s="18"/>
-      <c r="E975" s="17"/>
-      <c r="F975" s="17"/>
-      <c r="G975" s="19"/>
-    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;P</oddFooter>
   </headerFooter>
